--- a/PhoneClicks.xlsx
+++ b/PhoneClicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93ea7125ab3abd43/Files/Firma/Git/fiziosearch.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA369C13-987A-426B-B350-60AF94C6DE3B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7735BA-5ACC-4633-B398-55B49A28AB5B}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2595" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2940" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Dumitrescu</t>
   </si>
@@ -175,14 +175,20 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NPC</t>
+    <t>Click_#</t>
+  </si>
+  <si>
+    <t>Click_ID</t>
+  </si>
+  <si>
+    <t>CLICK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +199,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,6 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +777,12 @@
       <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" cm="1">
@@ -844,7 +865,7 @@
         <v>Neamu</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -882,7 +903,7 @@
         <v>Balanov</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/PhoneClicks.xlsx
+++ b/PhoneClicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93ea7125ab3abd43/Files/Firma/Git/fiziosearch.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7735BA-5ACC-4633-B398-55B49A28AB5B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCFABEE-1935-487B-A674-564374EBE83F}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2940" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Dumitrescu</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>CLICK</t>
+  </si>
+  <si>
+    <t>Dragoi</t>
+  </si>
+  <si>
+    <t>Tronaru</t>
+  </si>
+  <si>
+    <t>Teodorescu</t>
+  </si>
+  <si>
+    <t>Cîrciumaru</t>
+  </si>
+  <si>
+    <t>Spiridon</t>
+  </si>
+  <si>
+    <t>Rosu</t>
+  </si>
+  <si>
+    <t>Dragnea</t>
   </si>
 </sst>
 </file>
@@ -523,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,6 +821,9 @@
       <c r="B5" t="str">
         <v>Tudosoiu</v>
       </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -856,6 +880,9 @@
       <c r="B12" t="str">
         <v>Bălășoiu</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -865,7 +892,7 @@
         <v>Neamu</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -903,7 +930,7 @@
         <v>Balanov</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +976,7 @@
         <v>Teodorecu</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,6 +1035,9 @@
       <c r="B28" t="str">
         <v>Albu</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1117,6 +1147,73 @@
       </c>
       <c r="B41" t="str">
         <v>Rotaru</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/PhoneClicks.xlsx
+++ b/PhoneClicks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93ea7125ab3abd43/Files/Firma/Git/fiziosearch.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCFABEE-1935-487B-A674-564374EBE83F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D1B64624A357A494020655BDA698E5BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7AC370-CC9B-464E-93BB-5293ADC3530B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2790" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Dumitrescu</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Dragnea</t>
+  </si>
+  <si>
+    <t>Hirjoaba</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1108,9 @@
       <c r="B36" t="str">
         <v>Ghita</v>
       </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1208,12 +1214,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
